--- a/spec/fixtures/files/reduced_categories_table_missing_tab.xlsx
+++ b/spec/fixtures/files/reduced_categories_table_missing_tab.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CIN-CLA" sheetId="1" state="visible" r:id="rId2"/>
@@ -90,13 +90,13 @@
     <t xml:space="preserve">Category (L1) Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Sub-category (L2)</t>
+    <t xml:space="preserve">Category (L2)</t>
   </si>
   <si>
     <t xml:space="preserve">Category (L2) Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Sub-category (L3)</t>
+    <t xml:space="preserve">Category (L3)</t>
   </si>
   <si>
     <t xml:space="preserve">Category (L3) Description</t>
@@ -3989,9 +3989,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>26640</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4005,7 +4005,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="22943160" y="8239320"/>
-          <a:ext cx="27000" cy="7920"/>
+          <a:ext cx="26640" cy="7560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4031,10 +4031,10 @@
   </sheetPr>
   <dimension ref="A1:AM79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6188,8 +6188,8 @@
   </sheetPr>
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9227,10 +9227,10 @@
   </sheetPr>
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+      <selection pane="bottomLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
